--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F952F04F-F030-9C49-994E-AD9CFC44F1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF7C44E-47AF-0141-A924-E7E4DACCE7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="3160" windowWidth="27940" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -453,7 +453,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +468,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -521,95 +521,6 @@
         <v>20002</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20003</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>20004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>20006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="4">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>20007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>20008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="4">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>20009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="4">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>20010</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF7C44E-47AF-0141-A924-E7E4DACCE7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A3657C-0E33-E344-B0F1-33B3D4B82710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="3160" windowWidth="27940" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -522,6 +522,126 @@
       </c>
       <c r="E5" s="1"/>
     </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20003</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>20004</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20005</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20006</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>20007</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20008</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20009</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>20010</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>20011</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>20012</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A3657C-0E33-E344-B0F1-33B3D4B82710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365DF13A-861A-8447-91F8-F03DDC14613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="3160" windowWidth="27940" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7900" yWindow="2740" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>##var</t>
   </si>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>外网端口</t>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -466,7 +474,9 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
@@ -481,7 +491,9 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -496,7 +508,9 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4">
@@ -508,7 +522,9 @@
       <c r="D4" s="4">
         <v>20001</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="4">
@@ -520,7 +536,9 @@
       <c r="D5" s="4">
         <v>20002</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="4">
@@ -532,7 +550,9 @@
       <c r="D6" s="4">
         <v>20003</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="4">
@@ -544,7 +564,9 @@
       <c r="D7" s="4">
         <v>20004</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="4">
@@ -556,7 +578,9 @@
       <c r="D8" s="4">
         <v>20005</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="4">
@@ -568,7 +592,9 @@
       <c r="D9" s="4">
         <v>20006</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="4">
@@ -580,67 +606,9 @@
       <c r="D10" s="4">
         <v>20007</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="4">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>20008</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="4">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>20009</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="4">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>20010</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="4">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>20011</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="4">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>20012</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365DF13A-861A-8447-91F8-F03DDC14613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AD2BD7-FC99-9B48-AD3A-D6ECA4FCE50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="2740" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="2740" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AD2BD7-FC99-9B48-AD3A-D6ECA4FCE50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294525E-CCAD-A744-8AB0-4F960ADEF750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="2740" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1720" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -59,14 +59,15 @@
     <t>所属机器</t>
   </si>
   <si>
-    <t>外网端口</t>
-  </si>
-  <si>
     <t>Num</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网端口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +451,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -475,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -506,10 +507,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -520,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>20001</v>
+        <v>40001</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -533,9 +534,7 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
-        <v>20002</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <v>1</v>
       </c>
@@ -547,9 +546,7 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
-        <v>20003</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="1">
         <v>4</v>
       </c>
@@ -561,9 +558,7 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
-        <v>20004</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -575,9 +570,7 @@
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <v>20005</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="1">
         <v>2</v>
       </c>
@@ -589,9 +582,7 @@
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="4">
-        <v>20006</v>
-      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="1">
         <v>1</v>
       </c>
@@ -603,9 +594,7 @@
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
-        <v>20007</v>
-      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="1">
         <v>1</v>
       </c>

--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294525E-CCAD-A744-8AB0-4F960ADEF750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F04DB-750A-5D4A-BE87-8F10FDAC7C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="1720" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17500" yWindow="2960" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -68,6 +68,42 @@
   </si>
   <si>
     <t>内网端口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceDiscovery</t>
+  </si>
+  <si>
+    <t>RouterManager</t>
+  </si>
+  <si>
+    <t>Router</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Gate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>MapManager</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -459,10 +495,11 @@
     <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="12.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="22.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +515,11 @@
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -495,8 +535,11 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -512,8 +555,11 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -526,8 +572,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -538,8 +587,11 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -550,8 +602,11 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -562,8 +617,11 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -574,8 +632,11 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -586,8 +647,11 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -597,6 +661,9 @@
       <c r="D10" s="4"/>
       <c r="E10" s="1">
         <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Release/Datas/StartProcess.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Release/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F04DB-750A-5D4A-BE87-8F10FDAC7C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8682B4-3726-D945-B952-2AA264F09524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17500" yWindow="2960" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="2660" windowWidth="32260" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -104,6 +103,14 @@
   </si>
   <si>
     <t>MapManager</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多10个，预留id到13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多10个，预留id到25</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -496,10 +503,11 @@
     <col min="2" max="4" width="12.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -539,7 +547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -559,7 +567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:7" ht="15">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -576,7 +584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -591,7 +599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -605,10 +613,13 @@
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15">
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
       <c r="B7" s="4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -621,9 +632,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="B8" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -635,10 +646,13 @@
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" s="4">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -651,9 +665,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="B10" s="4">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
